--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T09:30:35-05:00</t>
+    <t>2023-11-28T21:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1033,6 +1033,22 @@
   </si>
   <si>
     <t>Condition.evidence:measles.extension</t>
+  </si>
+  <si>
+    <t>Condition.evidence:measles.extension:RashOnsetDate</t>
+  </si>
+  <si>
+    <t>RashOnsetDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/rash-onset}
+</t>
+  </si>
+  <si>
+    <t>Rash Onset Date</t>
+  </si>
+  <si>
+    <t>Date when rash appeared</t>
   </si>
   <si>
     <t>Condition.evidence:measles.modifierExtension</t>
@@ -1376,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6924,7 +6940,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6946,14 +6962,12 @@
         <v>91</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>34</v>
@@ -6990,16 +7004,14 @@
         <v>34</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>257</v>
@@ -7026,7 +7038,7 @@
         <v>34</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>34</v>
@@ -7040,43 +7052,41 @@
         <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>34</v>
       </c>
@@ -7124,7 +7134,7 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7133,7 +7143,7 @@
         <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
@@ -7148,7 +7158,7 @@
         <v>34</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>34</v>
@@ -7159,14 +7169,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7179,22 +7189,26 @@
         <v>34</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>34</v>
       </c>
@@ -7218,11 +7232,13 @@
         <v>34</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>34</v>
@@ -7240,7 +7256,7 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7249,25 +7265,25 @@
         <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>34</v>
@@ -7275,10 +7291,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7301,13 +7317,13 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7334,13 +7350,11 @@
         <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>34</v>
@@ -7358,7 +7372,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7373,16 +7387,16 @@
         <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>299</v>
@@ -7393,10 +7407,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7416,16 +7430,16 @@
         <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7476,7 +7490,7 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7485,32 +7499,150 @@
         <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="B52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO51" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AP51" t="s" s="2">
+      <c r="L52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP51">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7520,7 +7652,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/InfectiousDisease</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/InfectiousDisease</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T21:37:28-05:00</t>
+    <t>2023-12-05T13:08:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,7 +332,7 @@
     <t>infectious-disease-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/disease-name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/disease-name}
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/Traveler)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/Traveler)
 </t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>chestXrayResults</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/chest-xray}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/chest-xray}
 </t>
   </si>
   <si>
@@ -1017,7 +1017,7 @@
     <t>Condition.evidence:tuberculosis.code</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/TuberculosisVS</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/ValueSet/TuberculosisVS</t>
   </si>
   <si>
     <t>Condition.evidence:tuberculosis.detail</t>
@@ -1041,7 +1041,7 @@
     <t>RashOnsetDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/rash-onset}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/rash-onset}
 </t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>Condition.evidence:measles.code</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/AirportCodeVS</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/ValueSet/AirportCodeVS</t>
   </si>
   <si>
     <t>Condition.evidence:measles.detail</t>
@@ -1410,7 +1410,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1424,7 +1424,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.09765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.4609375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
